--- a/ipl/Chennai Super Kings/Ravindra Jadeja.xlsx
+++ b/ipl/Chennai Super Kings/Ravindra Jadeja.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -518,9 +518,357 @@
         <v>2nd Match (N), Wankhede, April 10, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B5" t="str">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0</v>
+      </c>
+      <c r="D5" t="str">
+        <v>0</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>-</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Super Kings won by 4 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Qualifier 1 (N), Dubai (DSC), October 10, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B6" t="str">
+        <v>8</v>
+      </c>
+      <c r="C6" t="str">
+        <v>7</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>114.28</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Super Kings won by 45 runs</v>
+      </c>
+      <c r="I6" t="str">
+        <v>12th Match (N), Wankhede, April 19, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B7" t="str">
+        <v>7</v>
+      </c>
+      <c r="C7" t="str">
+        <v>6</v>
+      </c>
+      <c r="D7" t="str">
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>116.66</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Super Kings won by 7 wickets (with 9 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>23rd Match (N), Delhi, April 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B8" t="str">
+        <v>15</v>
+      </c>
+      <c r="C8" t="str">
+        <v>17</v>
+      </c>
+      <c r="D8" t="str">
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>88.23</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Punjab Kings won by 6 wickets (with 42 balls remaining)</v>
+      </c>
+      <c r="I8" t="str">
+        <v>53rd Match, Dubai (DSC), October 07, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B9" t="str">
+        <v>32</v>
+      </c>
+      <c r="C9" t="str">
+        <v>15</v>
+      </c>
+      <c r="D9" t="str">
+        <v>4</v>
+      </c>
+      <c r="E9" t="str">
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <v>213.33</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Royals won by 7 wickets (with 15 balls remaining)</v>
+      </c>
+      <c r="I9" t="str">
+        <v>47th Match (N), Abu Dhabi, October 02, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B10" t="str">
+        <v>22</v>
+      </c>
+      <c r="C10" t="str">
+        <v>22</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Mumbai won by 4 wickets</v>
+      </c>
+      <c r="I10" t="str">
+        <v>27th Match (N), Delhi, May 01, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B11" t="str">
+        <v>26</v>
+      </c>
+      <c r="C11" t="str">
+        <v>33</v>
+      </c>
+      <c r="D11" t="str">
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>78.78</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Super Kings won by 20 runs</v>
+      </c>
+      <c r="I11" t="str">
+        <v>30th Match (N), Dubai (DSC), September 19, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B12" t="str">
+        <v>62</v>
+      </c>
+      <c r="C12" t="str">
+        <v>28</v>
+      </c>
+      <c r="D12" t="str">
+        <v>4</v>
+      </c>
+      <c r="E12" t="str">
+        <v>5</v>
+      </c>
+      <c r="F12" t="str">
+        <v>221.42</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Super Kings won by 69 runs</v>
+      </c>
+      <c r="I12" t="str">
+        <v>19th Match (D/N), Wankhede, April 25, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B13" t="str">
+        <v>26</v>
+      </c>
+      <c r="C13" t="str">
+        <v>17</v>
+      </c>
+      <c r="D13" t="str">
+        <v>3</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>152.94</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Capitals won by 7 wickets (with 8 balls remaining)</v>
+      </c>
+      <c r="I13" t="str">
+        <v>2nd Match (N), Wankhede, April 10, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B14" t="str">
+        <v>22</v>
+      </c>
+      <c r="C14" t="str">
+        <v>8</v>
+      </c>
+      <c r="D14" t="str">
+        <v>2</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2</v>
+      </c>
+      <c r="F14" t="str">
+        <v>275.00</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Super Kings won by 2 wickets</v>
+      </c>
+      <c r="I14" t="str">
+        <v>38th Match, Abu Dhabi, September 26, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B15" t="str">
+        <v>1</v>
+      </c>
+      <c r="C15" t="str">
+        <v>2</v>
+      </c>
+      <c r="D15" t="str">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>50.00</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Capitals won by 3 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I15" t="str">
+        <v>50th Match (N), Dubai (DSC), October 04, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Ravindra Jadeja</v>
+      </c>
+      <c r="B16" t="str">
+        <v>6</v>
+      </c>
+      <c r="C16" t="str">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <v>0</v>
+      </c>
+      <c r="E16" t="str">
+        <v>1</v>
+      </c>
+      <c r="F16" t="str">
+        <v>600.00</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Super Kings won by 18 runs</v>
+      </c>
+      <c r="I16" t="str">
+        <v>15th Match (N), Wankhede, April 21, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I16"/>
   </ignoredErrors>
 </worksheet>
 </file>